--- a/application/event/controller/test.xlsx
+++ b/application/event/controller/test.xlsx
@@ -11,6 +11,99 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>题目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是傻逼吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你妈你才是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这东西是不是弱智？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯定是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确实是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,29 +450,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="25" customWidth="1"/>
+    <col min="4" max="7" width="18.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/application/event/controller/test.xlsx
+++ b/application/event/controller/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,16 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>题目ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,14 +97,54 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好______？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是不是傻逼？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,10 +274,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,7 +308,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,104 +483,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="25" customWidth="1"/>
     <col min="4" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/application/event/controller/test.xlsx
+++ b/application/event/controller/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈哈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H6" sqref="H6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -623,6 +627,110 @@
         <v>30</v>
       </c>
     </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application/event/controller/test.xlsx
+++ b/application/event/controller/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选项E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,14 +137,18 @@
   </si>
   <si>
     <t>哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +278,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,20 +489,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="25" customWidth="1"/>
     <col min="4" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -526,16 +528,16 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -561,16 +563,16 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -581,7 +583,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -596,38 +598,38 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -635,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -650,10 +652,10 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -661,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -676,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -702,10 +704,10 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -728,7 +730,7 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/application/event/controller/test.xlsx
+++ b/application/event/controller/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,10 +278,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +312,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,20 +487,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="25" customWidth="1"/>
     <col min="4" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -537,199 +535,199 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J10" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G16" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H17" t="s">
         <v>30</v>
       </c>
     </row>

--- a/application/event/controller/test.xlsx
+++ b/application/event/controller/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,14 @@
   </si>
   <si>
     <t>ABCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -535,6 +543,35 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>14</v>
@@ -546,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -575,42 +612,63 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -618,39 +676,27 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -687,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -728,6 +774,32 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
         <v>30</v>
       </c>
     </row>
